--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C33C69-CCF4-4B22-B31A-EE4C80CE1BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -246,18 +245,119 @@
   </si>
   <si>
     <t>b biết cô gái cái người sống cạnh nhà t ko</t>
+  </si>
+  <si>
+    <t>was neil armstrong the first person to set foot on the moon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>im not the man u r looking for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the girl coming from Vietnam can speak english very well</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the man who was arrested by the police yesterday lives in this city</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the man arrested by the police yesterday …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the book which is on the table is hers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the book on the table is hers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the cat which is under the table is named Tom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the cat under the table is named Tom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the film, which was made in 1997 is about the wild animals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the film made in 1997 …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this is the house where uncle Ho wrote the declaration of Independence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>what's the name of the girl who bought the water bottle for you?</t>
+  </si>
+  <si>
+    <t>These are difficult questions that we have to answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my grandpa got a couple of cats, one of which have black feathers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Titanic is the only film to win 13 Oscar</t>
+  </si>
+  <si>
+    <t>the cemetery is a place where the dead are buried</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neil armstrong is the first person to foot on the moon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do u know the girl who lives the next door to me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the road leading to the school is very bumpy</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,6 +398,391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4905</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4097547" y="1698325"/>
+          <a:ext cx="8200000" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4906</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682925" y="8249009"/>
+          <a:ext cx="8200000" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4905</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9560943" y="8249009"/>
+          <a:ext cx="8200000" cy="1666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12975566" y="1698325"/>
+          <a:ext cx="8200000" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4906</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12975566" y="3639269"/>
+          <a:ext cx="8200000" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>69537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9560943" y="13586604"/>
+          <a:ext cx="8171428" cy="2980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4905</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4097547" y="6793302"/>
+          <a:ext cx="8200000" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>50010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682925" y="17953726"/>
+          <a:ext cx="8171428" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>65015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682925" y="20865142"/>
+          <a:ext cx="8171428" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>136204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9560943" y="23776557"/>
+          <a:ext cx="8171428" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,16 +1047,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -582,320 +1067,417 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="60" spans="1:16">
+      <c r="P60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="P63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="O64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="15:16">
+      <c r="P66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="15:16">
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="15:16">
+      <c r="P69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="15:16">
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F103" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N103" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="W103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N104" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F19" t="s">
+      <c r="W104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="F105" t="s">
         <v>19</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N105" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
+      <c r="W105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="F106" t="s">
         <v>20</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N106" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="W106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="B107" t="s">
         <v>22</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N107" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="W107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B108" t="s">
         <v>23</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N108" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L23" t="s">
+      <c r="W108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="N109" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="W109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="B110" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N110" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="111" spans="1:23">
+      <c r="B111" t="s">
         <v>24</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N111" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L26" t="s">
+      <c r="W111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="N112" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="W112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E117" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F117" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
+    <row r="118" spans="1:6">
+      <c r="E118" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
+    <row r="119" spans="1:6">
+      <c r="E119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
+    <row r="120" spans="1:6">
+      <c r="E120" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B122" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="123" spans="1:6">
+      <c r="B123" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="126" spans="1:6">
+      <c r="B126" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B127" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B134" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>44</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D139" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
+    <row r="149" spans="1:2">
+      <c r="B149" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
+    <row r="150" spans="1:2">
+      <c r="B150" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+    <row r="152" spans="1:2">
+      <c r="B152" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
+    <row r="153" spans="1:2">
+      <c r="B153" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
+    <row r="155" spans="1:2">
+      <c r="B155" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
+    <row r="156" spans="1:2">
+      <c r="B156" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
+    <row r="157" spans="1:2">
+      <c r="B157" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+    <row r="159" spans="1:2">
+      <c r="B159" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
+    <row r="160" spans="1:2">
+      <c r="B160" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D2A490-1147-4273-BBA3-A56D9A65ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="10260"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
+    <sheet name="So sánh kép" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -339,12 +333,129 @@
   <si>
     <t>the road leading to the school is very bumpy</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the more</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be </t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>adv (short)</t>
+  </si>
+  <si>
+    <t>adj (short)</t>
+  </si>
+  <si>
+    <t>adj (long)</t>
+  </si>
+  <si>
+    <t>adv (long)</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>the more u learn, the more u forget</t>
+  </si>
+  <si>
+    <t>the more interesting the film is, the morre people watch</t>
+  </si>
+  <si>
+    <t>the more telephone u call, the more money u pay</t>
+  </si>
+  <si>
+    <t>the sweeter , the more children like</t>
+  </si>
+  <si>
+    <t>the earlier u get up, the healthier u r</t>
+  </si>
+  <si>
+    <t>chân he càng to, he càng khó tìm giày</t>
+  </si>
+  <si>
+    <t>bạn càng làm việc chăm chỉ, bạn càng kiếm đc nhiều tiền</t>
+  </si>
+  <si>
+    <t>she càng xinh thì càng nhiều người ngắm</t>
+  </si>
+  <si>
+    <t>the more carefully he drives, the less acident he got</t>
+  </si>
+  <si>
+    <t>bạn càng hào phóng, b càng hạnh phúc</t>
+  </si>
+  <si>
+    <t>the bigger his feet are, the more difficulty he has in finding fit shoes</t>
+  </si>
+  <si>
+    <t>the harder u work, the more money u make</t>
+  </si>
+  <si>
+    <t>the more beautiful she is, the more people want to look at</t>
+  </si>
+  <si>
+    <t>the more generous u are, the happier u are</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>earlier</t>
+  </si>
+  <si>
+    <t>lazier</t>
+  </si>
+  <si>
+    <t>happier</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>quieter</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>narrower</t>
+  </si>
+  <si>
+    <t>cleaver</t>
+  </si>
+  <si>
+    <t>cleverer</t>
+  </si>
+  <si>
+    <t>noble</t>
+  </si>
+  <si>
+    <t>nobler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -417,7 +528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -455,7 +572,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -493,7 +616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -531,7 +660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -569,7 +704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -607,7 +748,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -645,7 +792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -683,7 +836,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -721,7 +880,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -759,7 +924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1047,14 +1218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -1480,4 +1651,213 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5240AFA1-AA0C-4D8A-8A50-4EDD48E531D8}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D2A490-1147-4273-BBA3-A56D9A65ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -450,12 +449,30 @@
   </si>
   <si>
     <t>nobler</t>
+  </si>
+  <si>
+    <t>quá nhiều bài tập về nhà thật kinh khủng. Nhiều sinh viên bị quá tải bởi lượng bài tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to much home work is horible. Many students are overloaded </t>
+  </si>
+  <si>
+    <t>các trò đùa của bạn thật là vui. Mình đc vui cười suốt cả buổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your jokes are very funny. </t>
+  </si>
+  <si>
+    <t>mình rất xúc động vs bộ phim vì các cảnh trong phim rất xúc động</t>
+  </si>
+  <si>
+    <t>I was very touched by the movie because the scenes in the movie are very emotional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1218,14 +1235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W166"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -1654,16 +1671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5240AFA1-AA0C-4D8A-8A50-4EDD48E531D8}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1857,6 +1874,36 @@
         <v>110</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
     <sheet name="So sánh kép" sheetId="2" r:id="rId2"/>
+    <sheet name="Adjectives ending in ed or ing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -467,13 +468,16 @@
   </si>
   <si>
     <t>I was very touched by the movie because the scenes in the movie are very emotional</t>
+  </si>
+  <si>
+    <t>Adjectives ending in '-ed' and '-ing' | LearnEnglish (britishcouncil.org)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +490,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -506,13 +518,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,6 +988,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485029</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5971429" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322667</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3619500"/>
+          <a:ext cx="9466667" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1674,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1907,4 +2003,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA03E2-F668-4D50-901A-84D686E2BAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -471,12 +472,18 @@
   </si>
   <si>
     <t>Adjectives ending in '-ed' and '-ing' | LearnEnglish (britishcouncil.org)</t>
+  </si>
+  <si>
+    <t>Ted đã quên kéo khóa quần và điều này làm anh ấy xấu hổ</t>
+  </si>
+  <si>
+    <t>Ted forgot to zip his pants and this embarrassed him</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1005,7 +1012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1043,7 +1056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1331,14 +1350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W166"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -1767,16 +1786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1998,6 +2017,16 @@
     <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="C29" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2006,14 +2035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
@@ -2022,7 +2051,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing"/>
+    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA03E2-F668-4D50-901A-84D686E2BAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B437D011-7F3F-46DB-A7FA-0763D1D074EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
     <sheet name="So sánh kép" sheetId="2" r:id="rId2"/>
     <sheet name="Adjectives ending in ed or ing" sheetId="3" r:id="rId3"/>
+    <sheet name="sắp xếp adj" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="243">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -456,15 +457,9 @@
     <t>quá nhiều bài tập về nhà thật kinh khủng. Nhiều sinh viên bị quá tải bởi lượng bài tập</t>
   </si>
   <si>
-    <t xml:space="preserve">to much home work is horible. Many students are overloaded </t>
-  </si>
-  <si>
     <t>các trò đùa của bạn thật là vui. Mình đc vui cười suốt cả buổi</t>
   </si>
   <si>
-    <t xml:space="preserve">your jokes are very funny. </t>
-  </si>
-  <si>
     <t>mình rất xúc động vs bộ phim vì các cảnh trong phim rất xúc động</t>
   </si>
   <si>
@@ -477,7 +472,313 @@
     <t>Ted đã quên kéo khóa quần và điều này làm anh ấy xấu hổ</t>
   </si>
   <si>
-    <t>Ted forgot to zip his pants and this embarrassed him</t>
+    <t>o</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>vietnamese</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>washing machine</t>
+  </si>
+  <si>
+    <t>dedicate</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>pickup truck</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>there is a brown japanese wooden table</t>
+  </si>
+  <si>
+    <t>a cute small black cat</t>
+  </si>
+  <si>
+    <t>an ugly mean women</t>
+  </si>
+  <si>
+    <t>my mother has long black hair</t>
+  </si>
+  <si>
+    <t>I want to buy a big round blue dinning table</t>
+  </si>
+  <si>
+    <t>does mirian need that small square wooden table</t>
+  </si>
+  <si>
+    <t>what is this triangular red feather</t>
+  </si>
+  <si>
+    <t>did u notice the brand of that</t>
+  </si>
+  <si>
+    <t>this amazing elegantly shaped brown amazing wardrobe is my friend's gift</t>
+  </si>
+  <si>
+    <t>tận cùng là ing dùng để mô tả tính cách, tính chất, ddawncj điểm của người hoặc vật</t>
+  </si>
+  <si>
+    <t>và khi chủ ngữ là vật hoặc sự vật, sự việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vd </t>
+  </si>
+  <si>
+    <t>the kitchen is disguting, it havent clean for many years</t>
+  </si>
+  <si>
+    <t>tận cùng là ed, mô tả cảm xúc, cảm nhận của người or khi chủ ngữ là người</t>
+  </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
+    <t>this job is so boring, so im bored with it</t>
+  </si>
+  <si>
+    <t>surpried party</t>
+  </si>
+  <si>
+    <t>tính từ + ing dùng để diễn tả bản chất, tính chất của 1 ai or 1 điều gì</t>
+  </si>
+  <si>
+    <t>this is an interesting guy</t>
+  </si>
+  <si>
+    <t>the babe is crying =&gt; the crying babe</t>
+  </si>
+  <si>
+    <t>mail should be sorted =&gt; the sorted mail</t>
+  </si>
+  <si>
+    <t>frozen food is not good for heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imprisoned man </t>
+  </si>
+  <si>
+    <t>boring man</t>
+  </si>
+  <si>
+    <t>alarming clock</t>
+  </si>
+  <si>
+    <t>annoying issuse</t>
+  </si>
+  <si>
+    <t>the entertaining programme</t>
+  </si>
+  <si>
+    <t>exciting man</t>
+  </si>
+  <si>
+    <t>astonished</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>overwhelmed</t>
+  </si>
+  <si>
+    <t>choáng ngợp</t>
+  </si>
+  <si>
+    <t>overwhelming</t>
+  </si>
+  <si>
+    <t>captivated = attract</t>
+  </si>
+  <si>
+    <t>quyến rũ</t>
+  </si>
+  <si>
+    <t>captivating</t>
+  </si>
+  <si>
+    <t>astounding</t>
+  </si>
+  <si>
+    <t>kinh hoàng</t>
+  </si>
+  <si>
+    <t>astounded</t>
+  </si>
+  <si>
+    <t>touched</t>
+  </si>
+  <si>
+    <t>touching</t>
+  </si>
+  <si>
+    <t>chạm tới cảm xúc, cảm động</t>
+  </si>
+  <si>
+    <t>disturbed</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>bị quấy rầy</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>bất mãn</t>
+  </si>
+  <si>
+    <t>bẩn thỉu</t>
+  </si>
+  <si>
+    <t>discouraged</t>
+  </si>
+  <si>
+    <t>discouraging</t>
+  </si>
+  <si>
+    <t>chán nản</t>
+  </si>
+  <si>
+    <t>airgravating</t>
+  </si>
+  <si>
+    <t>airgravated</t>
+  </si>
+  <si>
+    <t>làm trầm trọng, nặng thêm</t>
+  </si>
+  <si>
+    <t>amused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amusing </t>
+  </si>
+  <si>
+    <t>vui thích, thích thú</t>
+  </si>
+  <si>
+    <t>terrify</t>
+  </si>
+  <si>
+    <t>horrify</t>
+  </si>
+  <si>
+    <t>kinh hoàng, khiếp đảm</t>
+  </si>
+  <si>
+    <t>sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to much homework is fritening. Many students are overloaded </t>
+  </si>
+  <si>
+    <t>your jokes were so funny. I was amused all the time</t>
+  </si>
+  <si>
+    <t>I was touched by the film, for the scenes were touching</t>
+  </si>
+  <si>
+    <t>ted forgot to zippen his trousers and this made him embarrassed</t>
+  </si>
+  <si>
+    <t>the alarming clock kept going off. I felt annoyed because it sounded annoying</t>
+  </si>
+  <si>
+    <t>her strict diet was motivating and she deserved to be motivated</t>
+  </si>
+  <si>
+    <t>my whole school was so depressed when we heard about the disaster in china</t>
+  </si>
+  <si>
+    <t>my mom was annoied by what she had found out under my bed</t>
   </si>
 </sst>
 </file>
@@ -1787,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A21" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B34" sqref="B22:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1989,46 +2290,6 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2036,17 +2297,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A18"/>
+  <dimension ref="A18:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="127" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2056,4 +2619,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8ED220-6764-4FF2-B941-61EEEE96060C}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B437D011-7F3F-46DB-A7FA-0763D1D074EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C666AE2-5FE7-4C8F-8F45-40B6DAC4B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="244">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -673,9 +673,6 @@
     <t>captivated = attract</t>
   </si>
   <si>
-    <t>quyến rũ</t>
-  </si>
-  <si>
     <t>captivating</t>
   </si>
   <si>
@@ -779,6 +776,12 @@
   </si>
   <si>
     <t>my mom was annoied by what she had found out under my bed</t>
+  </si>
+  <si>
+    <t>ngạc nhiên, bất ngờ</t>
+  </si>
+  <si>
+    <t>quyến rũ, thu hút</t>
   </si>
 </sst>
 </file>
@@ -2299,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A18:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="127" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="127" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2405,6 +2408,9 @@
       <c r="A82" t="s">
         <v>201</v>
       </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
@@ -2429,122 +2435,122 @@
         <v>206</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" t="s">
         <v>220</v>
-      </c>
-      <c r="D94" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
         <v>226</v>
-      </c>
-      <c r="C98" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2554,7 +2560,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2564,7 +2570,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2579,7 +2585,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2589,27 +2595,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="B113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C666AE2-5FE7-4C8F-8F45-40B6DAC4B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
@@ -787,7 +786,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1654,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -2090,16 +2089,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="164" workbookViewId="0">
       <selection activeCell="B34" sqref="B22:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2299,14 +2298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="127" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="127" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
@@ -2620,7 +2619,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2628,14 +2627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8ED220-6764-4FF2-B941-61EEEE96060C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">

--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Engrisk\MinhAnh\b2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539101F-0B80-432A-A6AE-776094A53A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
     <sheet name="So sánh kép" sheetId="2" r:id="rId2"/>
     <sheet name="Adjectives ending in ed or ing" sheetId="3" r:id="rId3"/>
     <sheet name="sắp xếp adj" sheetId="4" r:id="rId4"/>
+    <sheet name="Câu điều kiện" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="321">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -781,12 +783,243 @@
   </si>
   <si>
     <t>quyến rũ, thu hút</t>
+  </si>
+  <si>
+    <t>Loại 0</t>
+  </si>
+  <si>
+    <t>if (present simple); present simple</t>
+  </si>
+  <si>
+    <t>sử dụng khi</t>
+  </si>
+  <si>
+    <t>mô tả những hiện tượng or đưa ra gỉa định thuộc hiện tượng tự nhiên, vật lý</t>
+  </si>
+  <si>
+    <t>VD:</t>
+  </si>
+  <si>
+    <t>if u heat the water at 100 degree centigrade, it boils</t>
+  </si>
+  <si>
+    <t>loại 1</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>hiện tại đơn</t>
+  </si>
+  <si>
+    <t>hiện tại tiếp diễn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will </t>
+  </si>
+  <si>
+    <t xml:space="preserve">may </t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>hiện tại hoàn thành</t>
+  </si>
+  <si>
+    <t>người nói đưa ra giả định có khả năng xảy ra tại thời điểm nói</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>if u want to lose your weight, u must eat less</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>if u have finished your homework, u can go out</t>
+  </si>
+  <si>
+    <t>dùng để nói về những dự định tương lai (ko phải ước mơ)</t>
+  </si>
+  <si>
+    <t>If you fall in love with someone, you will want them to be happy.</t>
+  </si>
+  <si>
+    <t>loại 3</t>
+  </si>
+  <si>
+    <t>past simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would </t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>động từ nguyên thể</t>
+  </si>
+  <si>
+    <t>dùng khi</t>
+  </si>
+  <si>
+    <t>If I were the president, I would increase the teacher's salary.</t>
+  </si>
+  <si>
+    <t>if i had a wish, i would dream of living in a peaceful life</t>
+  </si>
+  <si>
+    <t>người nói đưa ra giả định ko mong muốn</t>
+  </si>
+  <si>
+    <t>người nói đưa ra giả định trái vs thực tại</t>
+  </si>
+  <si>
+    <t>If I couldn't pass the test, I had to sit it again (learn it again)</t>
+  </si>
+  <si>
+    <t>người nói phải sửa thông tin trong câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>if u want to lose weight, u must eat less</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>no if u wanted to lose weight, u would do exercise</t>
+  </si>
+  <si>
+    <t>loại 2</t>
+  </si>
+  <si>
+    <t>quá khứ hoàn thành</t>
+  </si>
+  <si>
+    <t>had + p2</t>
+  </si>
+  <si>
+    <t>would have + p2</t>
+  </si>
+  <si>
+    <t>khi người nói đưa ra giả định trái vs quá khứ</t>
+  </si>
+  <si>
+    <t>if the boy had learnt to swim, he wouldn't have drowned</t>
+  </si>
+  <si>
+    <t>If I were younger, I would learn another language.</t>
+  </si>
+  <si>
+    <t>if you had listened to me, u wouldn't be poor</t>
+  </si>
+  <si>
+    <t>inverted conditional sentense</t>
+  </si>
+  <si>
+    <t>If I had a lot of money, I would have traveled</t>
+  </si>
+  <si>
+    <t>should i go to university tomorrow, i will return the book to the library</t>
+  </si>
+  <si>
+    <t>đảo ngữ của câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>đảo ngữ của câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>were + s + to + v1; S + V(would do)</t>
+  </si>
+  <si>
+    <t>should + s + v + S2 + will/may/might/should/can… + V (infinitive)</t>
+  </si>
+  <si>
+    <t>were I to fail the test, my parents would be so sad</t>
+  </si>
+  <si>
+    <t>were i u, I would buy the house in Ha Dong town</t>
+  </si>
+  <si>
+    <t>đảo ngữ của câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>Had + S1 + (not) + past participle, S2 + would/might/could … + have + past participle.</t>
+  </si>
+  <si>
+    <t>had he driven more carefully, he wouldn't have had the accident</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>nếu ko</t>
+  </si>
+  <si>
+    <t>dùng thay if trong tất cả các câu điều kiện</t>
+  </si>
+  <si>
+    <t>suppose / supposing</t>
+  </si>
+  <si>
+    <t>giả sử</t>
+  </si>
+  <si>
+    <t>Suppose we miss the train - what will we do then?</t>
+  </si>
+  <si>
+    <t>suppose the teacher allowed us to have a day off, what would u do</t>
+  </si>
+  <si>
+    <t>as long as / so long as</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>(đứng đầu câu thì nghĩa = 'miễn là')</t>
+  </si>
+  <si>
+    <t>on condition that (miễn là, vs điều kiện là)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD </t>
+  </si>
+  <si>
+    <t>u will have a dog as long as u promise u take care of him</t>
+  </si>
+  <si>
+    <t>wish, if only</t>
+  </si>
+  <si>
+    <t>I wish I weren't a teacher</t>
+  </si>
+  <si>
+    <t>I were a teacher last year, I wish I hadn't been a teacher</t>
+  </si>
+  <si>
+    <t>I live in a small house, I wish I didn’t live in a small house</t>
+  </si>
+  <si>
+    <t>I wish it would rain tomorrow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1653,14 +1886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -2089,16 +2322,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="164" workbookViewId="0">
       <selection activeCell="B34" sqref="B22:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2298,14 +2531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A18:D117"/>
   <sheetViews>
     <sheetView topLeftCell="A95" zoomScale="127" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
@@ -2619,7 +2852,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing"/>
+    <hyperlink ref="A18" r:id="rId1" display="https://learnenglish.britishcouncil.org/grammar/a1-a2-grammar/adjectives-ending-in-ed-and-ing" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2627,14 +2860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2807,4 +3040,438 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6960F1A-1ACC-49CD-91FD-9B6DA46A7AC5}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="C87" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="C100" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MinhAnh/b2/Grammar.xlsx
+++ b/MinhAnh/b2/Grammar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engrisk\MinhAnh\b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539101F-0B80-432A-A6AE-776094A53A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087303D1-A623-45DD-94C6-FAF30FF5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="2440" windowWidth="14400" windowHeight="7450" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mệnh đề quan hệ" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Adjectives ending in ed or ing" sheetId="3" r:id="rId3"/>
     <sheet name="sắp xếp adj" sheetId="4" r:id="rId4"/>
     <sheet name="Câu điều kiện" sheetId="5" r:id="rId5"/>
+    <sheet name="Participle" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="347">
   <si>
     <t>hằng is a teacher</t>
   </si>
@@ -1014,6 +1015,84 @@
   </si>
   <si>
     <t>I wish it would rain tomorrow</t>
+  </si>
+  <si>
+    <t>passing</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looking </t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>having missed</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>dùng như tính từ (ving + danh từ)</t>
+  </si>
+  <si>
+    <t>the working man over there is my father</t>
+  </si>
+  <si>
+    <t>dùng trong mệnh đề quan hệ rút gọn</t>
+  </si>
+  <si>
+    <t>mrs hang teaching me who working in HANU</t>
+  </si>
+  <si>
+    <t>phân từ quá khứ là động từ kết thúc = ed or bất quy tắc dùng trong các thì</t>
+  </si>
+  <si>
+    <t>tương lai hoàn thành</t>
+  </si>
+  <si>
+    <t>dùng như tính từ trong câu</t>
+  </si>
+  <si>
+    <t>I was surprised at her new hair style</t>
+  </si>
+  <si>
+    <t>dùng trong mệnh đề quan hệ ở dạng bị động</t>
+  </si>
+  <si>
+    <t>và dùng trong câu bị động</t>
+  </si>
+  <si>
+    <t>phân từ hoàn thành</t>
+  </si>
+  <si>
+    <t>having + p2</t>
+  </si>
+  <si>
+    <t>cách sử dungk</t>
+  </si>
+  <si>
+    <t>dùng khi 1 hành động đi liền trước 1 hành động khác có cùng chủ ngữ</t>
+  </si>
+  <si>
+    <t>going to classroom, hang say hello</t>
+  </si>
+  <si>
+    <t>having read the instruction, I knew how to use the washing machine</t>
   </si>
 </sst>
 </file>
@@ -3046,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6960F1A-1ACC-49CD-91FD-9B6DA46A7AC5}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3474,4 +3553,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CF42C1-422D-40A5-8AEE-402EF8D61950}">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="F3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="F14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="F16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="F22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="G23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="G24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="G25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>